--- a/gameserver/src/main/resources/gameData/mission.xlsx
+++ b/gameserver/src/main/resources/gameData/mission.xlsx
@@ -31,8 +31,8 @@
           <t xml:space="preserve">1 杀死怪物
 2 收集物品
 3 对话类
-4 成就
-5 副本通关
+4 第一次类型成就
+5 其他类型成就
 6 金币达到数量
 </t>
         </r>
@@ -210,9 +210,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -224,36 +224,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,15 +292,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,17 +329,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,29 +353,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,187 +376,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,80 +567,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -667,6 +593,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1476,6 +1476,9 @@
       <c r="B13" t="s">
         <v>43</v>
       </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
       <c r="E13" t="s">
         <v>44</v>
       </c>

--- a/gameserver/src/main/resources/gameData/mission.xlsx
+++ b/gameserver/src/main/resources/gameData/mission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22176" windowHeight="6827"/>
+    <workbookView windowWidth="21960" windowHeight="6264"/>
   </bookViews>
   <sheets>
     <sheet name="任务成就配置表" sheetId="1" r:id="rId1"/>
@@ -31,19 +31,26 @@
           <t xml:space="preserve">1 杀死怪物
 2 收集物品
 3 对话类
-4 第一次类型成就
-5 其他类型成就
+4 任务完成
+5 等级
 6 金币达到数量
+7 组队
+8 公会
+9 pk
+10 副本
+11 装备穿戴
+12 交易
 </t>
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>13 好友功能</t>
         </r>
       </text>
     </comment>
@@ -52,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>id</t>
   </si>
@@ -93,6 +100,9 @@
     <t>升级大师</t>
   </si>
   <si>
+    <t>{"condition":10}</t>
+  </si>
+  <si>
     <t>角色达到10级</t>
   </si>
   <si>
@@ -102,6 +112,9 @@
     <t>访问村长</t>
   </si>
   <si>
+    <t>{"condition":1}</t>
+  </si>
+  <si>
     <t>和村长对话</t>
   </si>
   <si>
@@ -156,7 +169,7 @@
     <t>百万富翁</t>
   </si>
   <si>
-    <t>{"money":1000000}</t>
+    <t>{"condition":1000000}</t>
   </si>
   <si>
     <t>当前金币达到一百万</t>
@@ -186,7 +199,7 @@
     <t>挑战炎魔</t>
   </si>
   <si>
-    <t>{"instanceId":8}</t>
+    <t>{"condition":8}</t>
   </si>
   <si>
     <t>通关黑石塔副本</t>
@@ -196,6 +209,9 @@
   </si>
   <si>
     <t>一身神装</t>
+  </si>
+  <si>
+    <t>{"condition":20}</t>
   </si>
   <si>
     <t>穿戴的装备等级总和达到20级</t>
@@ -209,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -223,6 +239,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -231,14 +262,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,92 +369,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,21 +382,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -376,12 +392,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,174 +573,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,8 +589,64 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,66 +666,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -675,10 +691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,19 +703,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,112 +724,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,7 +1188,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1249,14 +1265,17 @@
       <c r="D3">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>101</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1264,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1272,14 +1291,17 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1287,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1295,14 +1317,17 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1310,22 +1335,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>104</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1333,22 +1361,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1356,22 +1387,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1379,22 +1413,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1402,25 +1439,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>108</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1428,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1436,14 +1473,17 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1451,22 +1491,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G12">
         <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1474,22 +1517,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G13">
         <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1497,22 +1540,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/mission.xlsx
+++ b/gameserver/src/main/resources/gameData/mission.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>id</t>
   </si>
@@ -100,7 +100,7 @@
     <t>升级大师</t>
   </si>
   <si>
-    <t>{"condition":10}</t>
+    <t>{"first":10}</t>
   </si>
   <si>
     <t>角色达到10级</t>
@@ -112,7 +112,7 @@
     <t>访问村长</t>
   </si>
   <si>
-    <t>{"condition":1}</t>
+    <t>{"id":1}</t>
   </si>
   <si>
     <t>和村长对话</t>
@@ -124,6 +124,9 @@
     <t>全村最好的剑</t>
   </si>
   <si>
+    <t>{"first":1}</t>
+  </si>
+  <si>
     <t>第一次获得一件百级装备</t>
   </si>
   <si>
@@ -169,7 +172,7 @@
     <t>百万富翁</t>
   </si>
   <si>
-    <t>{"condition":1000000}</t>
+    <t>{"first":1000000}</t>
   </si>
   <si>
     <t>当前金币达到一百万</t>
@@ -199,7 +202,7 @@
     <t>挑战炎魔</t>
   </si>
   <si>
-    <t>{"condition":8}</t>
+    <t>{"id":8}</t>
   </si>
   <si>
     <t>通关黑石塔副本</t>
@@ -211,7 +214,7 @@
     <t>一身神装</t>
   </si>
   <si>
-    <t>{"condition":20}</t>
+    <t>{"first":20}</t>
   </si>
   <si>
     <t>穿戴的装备等级总和达到20级</t>
@@ -225,10 +228,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -239,67 +242,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,15 +311,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,18 +347,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -398,181 +401,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,27 +598,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -651,6 +637,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -668,18 +663,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,145 +694,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,7 +1191,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1318,16 +1321,16 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1335,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -1344,16 +1347,16 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>104</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1361,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1370,16 +1373,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1387,7 +1390,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -1396,16 +1399,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1413,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -1422,16 +1425,16 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1439,7 +1442,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -1448,16 +1451,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>108</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1465,7 +1468,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1474,16 +1477,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11">
         <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1491,7 +1494,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1500,16 +1503,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12">
         <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1517,22 +1520,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13">
         <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1540,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -1549,16 +1552,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14">
         <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/mission.xlsx
+++ b/gameserver/src/main/resources/gameData/mission.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>id</t>
   </si>
@@ -124,16 +124,19 @@
     <t>全村最好的剑</t>
   </si>
   <si>
+    <t>{"first":100}</t>
+  </si>
+  <si>
+    <t>第一次获得一件百级装备</t>
+  </si>
+  <si>
+    <t>{"1009":4}</t>
+  </si>
+  <si>
+    <t>好友相伴</t>
+  </si>
+  <si>
     <t>{"first":1}</t>
-  </si>
-  <si>
-    <t>第一次获得一件百级装备</t>
-  </si>
-  <si>
-    <t>{"1009":4}</t>
-  </si>
-  <si>
-    <t>好友相伴</t>
   </si>
   <si>
     <t>第一次添加一个好友</t>
@@ -228,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -243,6 +246,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -250,14 +260,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,108 +352,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,49 +398,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,133 +572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,24 +589,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,17 +607,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,6 +632,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,13 +660,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,145 +697,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1191,7 +1194,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1347,16 +1350,16 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>104</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1364,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1373,16 +1376,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1390,7 +1393,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -1399,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1416,7 +1419,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -1425,16 +1428,16 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1442,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -1451,16 +1454,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>108</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1468,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1477,16 +1480,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11">
         <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1494,7 +1497,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1503,16 +1506,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1520,22 +1523,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1543,7 +1546,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -1552,16 +1555,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14">
         <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/mission.xlsx
+++ b/gameserver/src/main/resources/gameData/mission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21960" windowHeight="6264"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="任务成就配置表" sheetId="1" r:id="rId1"/>
@@ -232,8 +232,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -246,6 +246,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -253,46 +260,116 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,83 +388,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -398,31 +398,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,151 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,6 +589,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -621,24 +636,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -660,17 +657,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,6 +680,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -697,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,133 +709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -912,7 +912,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1266,7 +1266,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>10</v>

--- a/gameserver/src/main/resources/gameData/mission.xlsx
+++ b/gameserver/src/main/resources/gameData/mission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="19584" windowHeight="6827"/>
   </bookViews>
   <sheets>
     <sheet name="任务成就配置表" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>id</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>等级</t>
+  </si>
+  <si>
+    <t>接受条件</t>
   </si>
   <si>
     <t>完成条件</t>
@@ -260,12 +263,58 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -284,6 +333,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -291,40 +348,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,53 +378,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,43 +401,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,139 +575,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,26 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -660,8 +643,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,8 +667,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,133 +712,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -912,7 +915,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1191,22 +1194,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="9.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="21.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="28.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="14.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="21.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="28.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1231,13 +1234,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1245,25 +1251,25 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
         <v>100</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1271,25 +1277,25 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
         <v>101</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1297,25 +1303,25 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
         <v>102</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
+      <c r="I4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1323,25 +1329,25 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
         <v>103</v>
       </c>
-      <c r="H5" t="s">
-        <v>23</v>
+      <c r="I5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -1349,25 +1355,25 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
         <v>104</v>
       </c>
-      <c r="H6" t="s">
-        <v>27</v>
+      <c r="I6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1375,25 +1381,25 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7">
         <v>105</v>
       </c>
-      <c r="H7" t="s">
-        <v>30</v>
+      <c r="I7" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -1401,25 +1407,25 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
         <v>106</v>
       </c>
-      <c r="H8" t="s">
-        <v>33</v>
+      <c r="I8" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -1427,25 +1433,25 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
       <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9">
         <v>107</v>
       </c>
-      <c r="H9" t="s">
-        <v>36</v>
+      <c r="I9" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -1453,25 +1459,25 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
       <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10">
         <v>108</v>
       </c>
-      <c r="H10" t="s">
-        <v>40</v>
+      <c r="I10" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1479,25 +1485,25 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11">
         <v>109</v>
       </c>
-      <c r="H11" t="s">
-        <v>43</v>
+      <c r="I11" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1505,48 +1511,48 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
       <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12">
         <v>110</v>
       </c>
-      <c r="H12" t="s">
-        <v>46</v>
+      <c r="I12" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
       <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13">
         <v>109</v>
       </c>
-      <c r="H13" t="s">
-        <v>50</v>
+      <c r="I13" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -1554,17 +1560,17 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
       <c r="F14" t="s">
         <v>53</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14">
         <v>100</v>
       </c>
-      <c r="H14" t="s">
-        <v>54</v>
+      <c r="I14" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
